--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H2">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.776574666666667</v>
+        <v>0.06861733333333334</v>
       </c>
       <c r="N2">
-        <v>11.329724</v>
+        <v>0.205852</v>
       </c>
       <c r="O2">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="P2">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="Q2">
-        <v>153.9082252902196</v>
+        <v>2.452304674889778</v>
       </c>
       <c r="R2">
-        <v>1385.174027611976</v>
+        <v>22.070742074008</v>
       </c>
       <c r="S2">
-        <v>0.02095712991896903</v>
+        <v>0.0003224947378182102</v>
       </c>
       <c r="T2">
-        <v>0.02095712991896903</v>
+        <v>0.0003224947378182102</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H3">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.05554566666666666</v>
+        <v>3.776574666666666</v>
       </c>
       <c r="N3">
-        <v>0.166637</v>
+        <v>11.329724</v>
       </c>
       <c r="O3">
-        <v>0.01449476055945007</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="P3">
-        <v>0.01449476055945007</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="Q3">
-        <v>2.263674290537555</v>
+        <v>134.9704405612329</v>
       </c>
       <c r="R3">
-        <v>20.373068614838</v>
+        <v>1214.733965051096</v>
       </c>
       <c r="S3">
-        <v>0.0003082363928995307</v>
+        <v>0.01774953058961139</v>
       </c>
       <c r="T3">
-        <v>0.0003082363928995307</v>
+        <v>0.01774953058961139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1689.289306666667</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H4">
-        <v>5067.867920000001</v>
+        <v>107.216554</v>
       </c>
       <c r="I4">
-        <v>0.8814813868902839</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J4">
-        <v>0.8814813868902838</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.776574666666667</v>
+        <v>0.303255</v>
       </c>
       <c r="N4">
-        <v>11.329724</v>
+        <v>0.909765</v>
       </c>
       <c r="O4">
-        <v>0.9855052394405499</v>
+        <v>0.07310084954683041</v>
       </c>
       <c r="P4">
-        <v>0.9855052394405499</v>
+        <v>0.07310084954683042</v>
       </c>
       <c r="Q4">
-        <v>6379.727200228232</v>
+        <v>10.83798536109</v>
       </c>
       <c r="R4">
-        <v>57417.54480205409</v>
+        <v>97.54186824981001</v>
       </c>
       <c r="S4">
-        <v>0.8687045252496972</v>
+        <v>0.00142526876178606</v>
       </c>
       <c r="T4">
-        <v>0.8687045252496971</v>
+        <v>0.00142526876178606</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,13 +726,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H5">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I5">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J5">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,33 +741,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05554566666666666</v>
+        <v>0.06861733333333334</v>
       </c>
       <c r="N5">
-        <v>0.166637</v>
+        <v>0.205852</v>
       </c>
       <c r="O5">
-        <v>0.01449476055945007</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="P5">
-        <v>0.01449476055945007</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="Q5">
-        <v>93.83270073167111</v>
+        <v>115.9145274519822</v>
       </c>
       <c r="R5">
-        <v>844.49430658504</v>
+        <v>1043.23074706784</v>
       </c>
       <c r="S5">
-        <v>0.01277686164058663</v>
+        <v>0.01524354845575169</v>
       </c>
       <c r="T5">
-        <v>0.01277686164058663</v>
+        <v>0.01524354845575169</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>85.41274733333334</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>256.238242</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.04456888863285297</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J6">
-        <v>0.04456888863285296</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,33 +803,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.776574666666667</v>
+        <v>3.776574666666666</v>
       </c>
       <c r="N6">
         <v>11.329724</v>
       </c>
       <c r="O6">
-        <v>0.9855052394405499</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="P6">
-        <v>0.9855052394405499</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="Q6">
-        <v>322.5676177894676</v>
+        <v>6379.727200228231</v>
       </c>
       <c r="R6">
-        <v>2903.108560105208</v>
+        <v>57417.54480205407</v>
       </c>
       <c r="S6">
-        <v>0.04392287326371896</v>
+        <v>0.8389775022068908</v>
       </c>
       <c r="T6">
-        <v>0.04392287326371896</v>
+        <v>0.8389775022068908</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>85.41274733333334</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>256.238242</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.04456888863285297</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J7">
-        <v>0.04456888863285296</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.05554566666666666</v>
+        <v>0.303255</v>
       </c>
       <c r="N7">
-        <v>0.166637</v>
+        <v>0.909765</v>
       </c>
       <c r="O7">
-        <v>0.01449476055945007</v>
+        <v>0.07310084954683041</v>
       </c>
       <c r="P7">
-        <v>0.01449476055945007</v>
+        <v>0.07310084954683042</v>
       </c>
       <c r="Q7">
-        <v>4.744307992461556</v>
+        <v>512.2854286931999</v>
       </c>
       <c r="R7">
-        <v>42.698771932154</v>
+        <v>4610.5688582388</v>
       </c>
       <c r="S7">
-        <v>0.0006460153691339997</v>
+        <v>0.0673690168706009</v>
       </c>
       <c r="T7">
-        <v>0.0006460153691339996</v>
+        <v>0.06736901687060091</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>100.9654023333333</v>
+        <v>93.641553</v>
       </c>
       <c r="H8">
-        <v>302.8962069999999</v>
+        <v>280.924659</v>
       </c>
       <c r="I8">
-        <v>0.05268435816499464</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J8">
-        <v>0.05268435816499464</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.776574666666667</v>
+        <v>0.06861733333333334</v>
       </c>
       <c r="N8">
-        <v>11.329724</v>
+        <v>0.205852</v>
       </c>
       <c r="O8">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="P8">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="Q8">
-        <v>381.3033806618742</v>
+        <v>6.425433656052</v>
       </c>
       <c r="R8">
-        <v>3431.730425956868</v>
+        <v>57.82890290446801</v>
       </c>
       <c r="S8">
-        <v>0.05192071100816473</v>
+        <v>0.0008449882119031275</v>
       </c>
       <c r="T8">
-        <v>0.05192071100816473</v>
+        <v>0.0008449882119031275</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>93.641553</v>
+      </c>
+      <c r="H9">
+        <v>280.924659</v>
+      </c>
+      <c r="I9">
+        <v>0.05108605424341119</v>
+      </c>
+      <c r="J9">
+        <v>0.05108605424341119</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.776574666666666</v>
+      </c>
+      <c r="N9">
+        <v>11.329724</v>
+      </c>
+      <c r="O9">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="P9">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="Q9">
+        <v>353.644316807124</v>
+      </c>
+      <c r="R9">
+        <v>3182.798851264116</v>
+      </c>
+      <c r="S9">
+        <v>0.04650663206631924</v>
+      </c>
+      <c r="T9">
+        <v>0.04650663206631924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>100.9654023333333</v>
-      </c>
-      <c r="H9">
-        <v>302.8962069999999</v>
-      </c>
-      <c r="I9">
-        <v>0.05268435816499464</v>
-      </c>
-      <c r="J9">
-        <v>0.05268435816499464</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>93.641553</v>
+      </c>
+      <c r="H10">
+        <v>280.924659</v>
+      </c>
+      <c r="I10">
+        <v>0.05108605424341119</v>
+      </c>
+      <c r="J10">
+        <v>0.05108605424341119</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.303255</v>
+      </c>
+      <c r="N10">
+        <v>0.909765</v>
+      </c>
+      <c r="O10">
+        <v>0.07310084954683041</v>
+      </c>
+      <c r="P10">
+        <v>0.07310084954683042</v>
+      </c>
+      <c r="Q10">
+        <v>28.397269155015</v>
+      </c>
+      <c r="R10">
+        <v>255.575422395135</v>
+      </c>
+      <c r="S10">
+        <v>0.003734433965188818</v>
+      </c>
+      <c r="T10">
+        <v>0.003734433965188819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>14.34625366666667</v>
+      </c>
+      <c r="H11">
+        <v>43.038761</v>
+      </c>
+      <c r="I11">
+        <v>0.007826584134129748</v>
+      </c>
+      <c r="J11">
+        <v>0.007826584134129748</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M9">
-        <v>0.05554566666666666</v>
-      </c>
-      <c r="N9">
-        <v>0.166637</v>
-      </c>
-      <c r="O9">
-        <v>0.01449476055945007</v>
-      </c>
-      <c r="P9">
-        <v>0.01449476055945007</v>
-      </c>
-      <c r="Q9">
-        <v>5.60819058287322</v>
-      </c>
-      <c r="R9">
-        <v>50.47371524585898</v>
-      </c>
-      <c r="S9">
-        <v>0.0007636471568299056</v>
-      </c>
-      <c r="T9">
-        <v>0.0007636471568299056</v>
+      <c r="M11">
+        <v>0.06861733333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.205852</v>
+      </c>
+      <c r="O11">
+        <v>0.01654048691795588</v>
+      </c>
+      <c r="P11">
+        <v>0.01654048691795588</v>
+      </c>
+      <c r="Q11">
+        <v>0.9844016699302223</v>
+      </c>
+      <c r="R11">
+        <v>8.859615029372</v>
+      </c>
+      <c r="S11">
+        <v>0.0001294555124828542</v>
+      </c>
+      <c r="T11">
+        <v>0.0001294555124828542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>14.34625366666667</v>
+      </c>
+      <c r="H12">
+        <v>43.038761</v>
+      </c>
+      <c r="I12">
+        <v>0.007826584134129748</v>
+      </c>
+      <c r="J12">
+        <v>0.007826584134129748</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.776574666666666</v>
+      </c>
+      <c r="N12">
+        <v>11.329724</v>
+      </c>
+      <c r="O12">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="P12">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="Q12">
+        <v>54.17969815910711</v>
+      </c>
+      <c r="R12">
+        <v>487.617283431964</v>
+      </c>
+      <c r="S12">
+        <v>0.007124998672392265</v>
+      </c>
+      <c r="T12">
+        <v>0.007124998672392265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>14.34625366666667</v>
+      </c>
+      <c r="H13">
+        <v>43.038761</v>
+      </c>
+      <c r="I13">
+        <v>0.007826584134129748</v>
+      </c>
+      <c r="J13">
+        <v>0.007826584134129748</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.303255</v>
+      </c>
+      <c r="N13">
+        <v>0.909765</v>
+      </c>
+      <c r="O13">
+        <v>0.07310084954683041</v>
+      </c>
+      <c r="P13">
+        <v>0.07310084954683042</v>
+      </c>
+      <c r="Q13">
+        <v>4.350573155685</v>
+      </c>
+      <c r="R13">
+        <v>39.155158401165</v>
+      </c>
+      <c r="S13">
+        <v>0.0005721299492546287</v>
+      </c>
+      <c r="T13">
+        <v>0.0005721299492546288</v>
       </c>
     </row>
   </sheetData>
